--- a/Product/Table/Bullet.xlsx
+++ b/Product/Table/Bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Bullet|子弹" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>int</t>
   </si>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HitEffectDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HitSoundName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EffectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AudioName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>命中特效持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>命中音效名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,19 +131,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletHit</t>
+    <t>Effect_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissEffectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miss特效名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BulletMiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissSoundName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miss音效名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_BulletMiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -220,25 +228,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -519,29 +515,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
-    <col min="12" max="12" width="19.625" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="1" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,103 +571,100 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -681,42 +673,39 @@
         <v>1.5</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
-      </c>
-      <c r="L4">
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -725,42 +714,39 @@
         <v>1.5</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
       </c>
       <c r="J5">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
-      </c>
-      <c r="L5">
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -769,42 +755,39 @@
         <v>1.5</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
       </c>
       <c r="J6">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
-      </c>
-      <c r="L6">
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -813,42 +796,39 @@
         <v>1.5</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
       </c>
       <c r="J7">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>0.1</v>
-      </c>
-      <c r="L7">
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -857,31 +837,28 @@
         <v>1.5</v>
       </c>
       <c r="F8">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
       </c>
       <c r="J8">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
-      </c>
-      <c r="L8">
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Product/Table/Bullet.xlsx
+++ b/Product/Table/Bullet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>int</t>
   </si>
@@ -31,143 +31,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxTravelDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartScale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScaleDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitEffectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitSoundName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitStopDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenShakeIntensity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenShakeDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大飞行距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射时的初始缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放到正常大小的持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中特效名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中音效名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中顿帧时长（秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕震动强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕震动持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissEffectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miss特效名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_BulletMiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissSoundName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miss音效名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio_BulletMiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxTravelDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScaleDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitEffectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitSoundName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitStopDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenShakeIntensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenShakeDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大飞行距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发射时的初始缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩放到正常大小的持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中特效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中音效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中顿帧时长（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕震动强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕震动持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissEffectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miss特效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BulletMiss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissSoundName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miss音效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio_BulletMiss</t>
+    <t>子弹名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,350 +531,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.21875" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>170</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>170</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>1.5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1</v>
-      </c>
-      <c r="J4">
-        <v>0.5</v>
       </c>
       <c r="K4">
         <v>0.5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
         <v>34</v>
       </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>170</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.5</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
+      <c r="G5">
+        <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
         <v>0.1</v>
-      </c>
-      <c r="J5">
-        <v>0.5</v>
       </c>
       <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
         <v>34</v>
       </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>170</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>200</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.5</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
+      <c r="G6">
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6">
         <v>0.1</v>
-      </c>
-      <c r="J6">
-        <v>0.5</v>
       </c>
       <c r="K6">
         <v>0.5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>37</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>170</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>200</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.5</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
         <v>0.1</v>
-      </c>
-      <c r="J7">
-        <v>0.5</v>
       </c>
       <c r="K7">
         <v>0.5</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
       <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>170</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>200</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.5</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
+      <c r="G8">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8">
         <v>0.1</v>
-      </c>
-      <c r="J8">
-        <v>0.5</v>
       </c>
       <c r="K8">
         <v>0.5</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Product/Table/Bullet.xlsx
+++ b/Product/Table/Bullet.xlsx
@@ -1,213 +1,319 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Bullet|子弹" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>BulletName</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>MaxTravelDistance</t>
+  </si>
+  <si>
+    <t>StartScale</t>
+  </si>
+  <si>
+    <t>ScaleDuration</t>
+  </si>
+  <si>
+    <t>HitEffectName</t>
+  </si>
+  <si>
+    <t>HitSoundName</t>
+  </si>
+  <si>
+    <t>HitStopDuration</t>
+  </si>
+  <si>
+    <t>ScreenShakeIntensity</t>
+  </si>
+  <si>
+    <t>ScreenShakeDuration</t>
+  </si>
+  <si>
+    <t>MissEffectName</t>
+  </si>
+  <si>
+    <t>MissSoundName</t>
+  </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>float</t>
   </si>
   <si>
-    <t>Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxTravelDistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartScale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScaleDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitEffectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitSoundName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitStopDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenShakeIntensity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenShakeDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>子弹名称</t>
+  </si>
+  <si>
+    <t>伤害值</t>
   </si>
   <si>
     <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最大飞行距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发射时的初始缩放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缩放到正常大小的持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>命中特效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>命中音效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>命中顿帧时长（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>屏幕震动强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>屏幕震动持续时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miss特效名称</t>
+  </si>
+  <si>
+    <t>Miss音效名称</t>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Bullet/Bullet_0.png</t>
   </si>
   <si>
     <t>Effect_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Audio_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio_BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissEffectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miss特效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Effect_BulletMiss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MissSoundName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miss音效名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Audio_BulletMiss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BulletName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Bullet/Bullet_1.png</t>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Bullet/Bullet_2.png</t>
+  </si>
+  <si>
+    <t>Product/Game/Icon/Bullet/Bullet_3.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +326,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -231,38 +523,324 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -311,7 +889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -346,7 +924,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -520,50 +1098,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.21875" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.33035714285714" customWidth="1"/>
+    <col min="2" max="2" width="37.2053571428571" customWidth="1"/>
+    <col min="3" max="3" width="12.5535714285714" customWidth="1"/>
+    <col min="4" max="4" width="10.3303571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.8839285714286" customWidth="1"/>
+    <col min="6" max="6" width="18.5535714285714" customWidth="1"/>
+    <col min="7" max="7" width="14.4375" customWidth="1"/>
+    <col min="8" max="8" width="16.2232142857143" customWidth="1"/>
+    <col min="9" max="9" width="15.4375" customWidth="1"/>
+    <col min="10" max="10" width="19.2232142857143" customWidth="1"/>
+    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
+    <col min="12" max="12" width="19.6607142857143" customWidth="1"/>
+    <col min="13" max="13" width="19.2232142857143" customWidth="1"/>
+    <col min="14" max="14" width="16.2232142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -593,103 +1168,103 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:14">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -707,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -722,18 +1297,18 @@
         <v>0.5</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -751,10 +1326,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>0.1</v>
@@ -766,13 +1341,13 @@
         <v>0.5</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>3</v>
       </c>
@@ -795,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>0.1</v>
@@ -810,13 +1385,13 @@
         <v>0.5</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>4</v>
       </c>
@@ -839,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J7">
         <v>0.1</v>
@@ -854,59 +1429,15 @@
         <v>0.5</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>170</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>1.5</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8">
-        <v>0.1</v>
-      </c>
-      <c r="K8">
-        <v>0.5</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Product/Table/Bullet.xlsx
+++ b/Product/Table/Bullet.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Unity\Game\Shooter\Product\Table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Bullet|子弹" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -146,14 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,158 +161,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,194 +180,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -536,311 +204,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1098,39 +480,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33035714285714" customWidth="1"/>
-    <col min="2" max="2" width="37.2053571428571" customWidth="1"/>
-    <col min="3" max="3" width="12.5535714285714" customWidth="1"/>
-    <col min="4" max="4" width="10.3303571428571" customWidth="1"/>
-    <col min="5" max="5" width="17.8839285714286" customWidth="1"/>
-    <col min="6" max="6" width="18.5535714285714" customWidth="1"/>
-    <col min="7" max="7" width="14.4375" customWidth="1"/>
-    <col min="8" max="8" width="16.2232142857143" customWidth="1"/>
-    <col min="9" max="9" width="15.4375" customWidth="1"/>
-    <col min="10" max="10" width="19.2232142857143" customWidth="1"/>
-    <col min="11" max="11" width="19.1071428571429" customWidth="1"/>
-    <col min="12" max="12" width="19.6607142857143" customWidth="1"/>
-    <col min="13" max="13" width="19.2232142857143" customWidth="1"/>
-    <col min="14" max="14" width="16.2232142857143" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.21875" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1218,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:14">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1270,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>200</v>
@@ -1303,7 +684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1314,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -1347,7 +728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1358,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -1391,7 +772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1402,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>200</v>
@@ -1436,8 +817,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>